--- a/Anh11.xlsx
+++ b/Anh11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\DA-LTUDQL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="CauHoi" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
   <si>
     <t>maCH</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>Chia trạng ngữ</t>
+  </si>
+  <si>
+    <t>TenCD</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,6 +435,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +761,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1181,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79:D81"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1206,7 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -2417,7 +2423,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
